--- a/public/students.xlsx
+++ b/public/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>firstName</t>
   </si>
@@ -40,9 +40,6 @@
     <t>matric</t>
   </si>
   <si>
-    <t>avatar</t>
-  </si>
-  <si>
     <t>Zazo</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>16/48kc001</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAASsAAACoCAMAAACPKThEAAABZVBMVEUAAAABt/8AAAMAtv8Auf8AAQAAuv8AAQYDAAABAQgDt/0BAw0AADABAw8Etv4AAwoABRcAACIAAD4AACsAADsAABcAADIAAB0BABMAAE0ABRsAADcDACUAACwAABIBByMABR0AAEEPrvwAAEYAAFIAACADAEsIGE8BAFkCBmcBFnIELoMFPpAERJoAJH0GSKQNZb8NfdUJlegJofIFOY4BGWsCFXUKc88Mrf8Kar0FQ6QMdcQBIYILZ8YKovYJkeAMVaMADV8FOZQJSJQGLXoHPYUKb64HTIcNg80QoekGO4YGLGYWYpoGMmYHXZsBI00DEzQBKksKRGwQj8sTfbIAGlwRpusPR3IJTKILZa4GiOAVVJwDJmUWfOYEIU0EGl8FMV0VW4kJO1UTjcMINVwWaJUEGjARh8cNj+0FXs4HP3MNVIYGMWwEo/8AXNwGKVcDLJ0Ilv8CM7YRfPkATNcQT8IHTdGishaKAAAN7klEQVR4nO1dC1sTxxqe7MzO3jLJhpCLuWyWAOIRa4WUCnhBKyBRQRRIa7WirS2VttbT0/r7z3yzCZfsLruePh7KMK+PiCHkybzP+33z3WaCkIKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCwonQTvsNnAVoGvyFr8E/OqdNERcBzo3gygCaDIP/g+BL8KjCAQIxCWIMgCVgCMaCH532O/wHIZCSYTkO8zzPdd0S/+MyxhwnzznThMwUACAex3IYc/1WodAoNsvlbLbZbBRaFZ9T5uQdy1DWiALvlHeY6/qFZn3swqV/XZ6+8hngyvTlSxfG6uVipcb5Eiapn/bbPUWAVrh3YtVaqzFy4dLVz6/NzHbmsZ0hhFCC253ZmWtfzF0YKbZqrudY1rk1ReG3NSPvua1WeeLLxeuz85RSQuyMzf9yumxOGKWZ9uzC9KWRpt8X12m/7dMBjw8Mh9Ua2fEvF2c4T8AQ5wdElcE4A7A5cTZnrHPji4l6ww+0ddrv+/8L4Xc4VZbnNcoXbt66TYAobnt2Zgg4YIxQvHTnbr1R8xztvAWoEDNZhlPzy5euXm9zQ8PDJA3BznBxLdytF1yPK+s8+XgRADhVv3jx6gym4MpDggqzhW06vzBRbnnM6mdC5wI8TOCbX2vk8vV5mgHvlMiUsERuip0r401fhFvnhSy+/bFKc/yr29z6UgOkZxO8NldvuezckKVZedYavbSQIemZGhgiofP3RgqlvHUO4ngRU7FSa+TqbLJHj9BWjkcUNyYaXFmG9BsiUOW4rfHP5il3QB9LFuawbTo716w5jvRkQZrsNiauYQIOKHn7CyuL80s7y/WKp8me8vCkxm1cuIUJzhwPPfsSIwSLYN2GRAe+GdYV/wHO0fmVcsuRO3YAX+UWJ66TiP2P53/iKw/feYaTg9QGHoHwK+LJ7ZV6ixnyFgL5qgwwwBkajhUwRFkgJp4REnu+Tdur99e6nC0caahcl/fqLrMsSX2WcOtscuw6zeRCrgp2OApSAneUefDw0XoBWYVHOcx5jSarvdIoObKWaaBW5RXG7/A82Q4tnxCa6y5tPG40NjefPKmayOSaMVGl8XSLRJHF5YeXi25e1rIDROsj34Bbzxy1LPiO0N72E4aQCc/jROmaDnUIDf7zZrtNweFzt3XoufgLkPZOIyBLulyaJ4FOrXy1HUr/KCakvVHsPwe6N6J/ExQDhY093qOUgEsb0mJ3tCISafm4siy3eAmi9SGTwjbtvUSmaQUtrgMEv8VFo5vo6zUeuJIhsmx6I1tjEnos7qxY4eIMJDbD+qCdKf7joPweWrfef/BZ2Mfxl1ppuI58LkuzHDf7TUbUVoaouj2NdA31re7orwT/44ZoGmZ9iYaiB0I7FyueJRtX3FGzxt3bEGoeWbEN9c7uCx+d3F7mHsls3gkVBG1q02flmiWVEYomoFMZuUFzQ6vNUfLt8xJCw5IK4+E9THIh707wiwLTZLJCzgM49un2cKTE3XX3u2cuSlGLenIPIoehX8cZulYvMZmUxZdiOa2Rb2nIP9t0404ZJUZIQMWV2xEVHJ5E/lpwLZlyaK4rt7mMw8Kg26hkcs9+8lKFkTW7uZAqucOjS3U/L0/BASJK5o/eIMdlxf08vcEspCWvFH5udoeZ7jO23PAkCt412ATn5ulxIyKYdB/yGDQFV2CEL3F0Ek3XyiLGkoYr5tavUYKPFo2hnLfwEmlpdMWfZT2n0SVngncnPXm8u2Z5rYlOqBRF2zs/Ic1MjheAK9YJx6KCckxXm64jj8MyvOwVWOhRj0O59UBBIdXkCyeim4nsTts8hR7zmSQ1P103HH9khg6XFzLtb5xkQfVnSRFaoyS6oUjoyqSnJe2lZwUG8+92hkWBeTKXHIMecrUxTPbgdQhZE3UsKbjSHK9whYSqxvT2VLKrOuRqnUbaIHeCtDNacuQwQmielmdC3QhO3tcosdN+OM9d6EbGDNAYE0mhFFRxrvyLnZCr4SH3UzOxZ3XAlY4eRRqhDcNGz3k4KkNpBnqChd12uKJC6C/JdnOkSroZ29Gna0U5HJZmGF7jXihthtLVKkqcaDzkSmPduLka0h2tOXJw5bjNBYqHVYEzZCudbx+QtRQ3rWW3dytMhmgU3FX224hlYtorJR7lOsKVtxTt3MEIf/U9SXTlj8yGzcfGJLeJUpU0A/WNtWPHauj9ggQpoRj359tgxDw2z05eISvN9Eagq9fhUuEBVxsFdvYLflA+ZpNz7fCoMSYZvhEaaSY/BVfm9ySeKx65y8AV9AWXcXiZmNh020RpzrsJWZmoN9zaOORqqVg6+2MgYjx08gENzzvaMMRQ0FLrSkNP4317J+tLwBUXDqtciVklvW+msZxBNPoDtUNDDQKkW66d/WCUc2VxrmIORtBu1kyxEwZMGeZmxDBSoNFOVoLAXXA1uYztyAHtHF019TStCXEWWkc/0lArqK8rSbji6eA0hmHGqEXiKdNIV5gxkLDCyEIy6Rbds5/kCF0V5mK5omsw65CGK/5KmlntRRohcCXByUIoyVQm2pHTxFDTzOxDKzV5maI1ZpjbNOp1bDm4gmEif7wTHUfaFNPupmmkqmlytky0FZk/292CHFzxfHB0NlRC7hsPtukeMlOsUoPxPshzIl9mr+RJcRTacGpQZ4guAPM8kb5OVyrnGWGP2pH7IF2rSsKV5TZnaGR3j/DQklC8aVqJrwLa26Ix8qSrnhRzo5phuIU70XGRAKaPokdFD1+inxD+EFfsoxueFI0cqCFXlk86/Ua6vnlijBXEDBrajuOKPKzmZeAKglHo45xw/o2+SeYKdLUVU3AnvWJVjtOEhub45bX4k812jnv3RBs0zXhZ0b0q9Lwk4AqG+hoL8Q6LZOj2yROjgejMV5FhKOa7w0aVWTJsgwgF1b6TdLWVzBWPQ59G68q2yXo1L0XIII5MVHbn440Q014KXZnfRw6rYRuTbtOzdGm4cstLMWMuQhm9SrKu0I+RvQmby5JH7ZYMnl3cHcOjhmexGyGxCd5MoaufclHS5OEs2S85spwHgFJD9UX0YVxYLW1/V4yThd5/haA3MbC7o7riJlhk+TPfxOkD+l5ecSnuPgZsd+pOrAkNbh01TKdHIriCBMdnkqiq3yP0nsc6LLpkmHGyCB7WdQTh1UCYx3RF8FRVimRQABIUx7vYpplIYWF6I+nkhGnWnvLEObDBoSkS7tkdRxKmAhPKe95C+EiqAKH30cnb2JPXP/TgKj8SxZW97jhyxAsB4EhcdSxqqAEWS9cjmYI66E8/bm917aP3DsCVMoNvecSfsZeqkp22BO9eeR5d8KO3s3G/xH3UcMkKH5EVhnhjn8njrfrQHJZdihxIwLd8FGNEZo8cPxCOjxkgN2q6Z3lnvzt/FHC9uMWqO+1wNIkJ3Y92VvBgD67QPEbVkLPKPbYc2S4sgnjUmXxGM0PREU/nfi5GRww8TmC5o8/GeIgrO0NfO9JZoNgLWXV0lvIoC4u7mXIwKYMpfnuZxenK3ISbig6ywGGqMpAJMhl6XUMQwXtpGYsrKcSiedaLaebaSHAxSsRviBbXoHODcUhWmPbKVbmcVQBI2FiJrYmxIFiyjXM50r6VRVbMuSMN5b2nnE5OaBRT8ArrVSZXvNAHnOTNV192hRVi4dXJb4vlwacnhKFrzERvcnABVDRXdIOJiVoJ2dJ0w3LYelAtAGHZP0+XTMuK69CbRt7S0RtxohwPO3Y4WbJXkS+0OgDMjlr7cGoJrt1rf3e1apwwLwqhACfyTZvkcM4O+SraLVclvEtmAEh1mPYLJnCl9vzbuyXBRjxXzNLzbvnXNidKkHXUV9FulklMlfBZeVZd6fD87rd3X/qOYVhG/Hy7brkMsamv3nIzxMfnt2za/l3CyOo4NN3x6jd/Jr+9ez/KHXNwMVjck3Wr1tLM5vQ1vmcOufXeS5aX/uNN+Gbolz//97s/dgsMPs/lhLPhcOdCa5NVrfF2v/Al7o+G6w67L62zP/OYCGj07f/nz/dzTYi4jQSPo5l+tlhfP7w30oaMma42oCEoPVXIQitv/7g81nDFZyslrFc3TH93vDtIuSHdIbS3X/LysiXMETB1tPLX5dFsxXNSJXKa2Srs8dA9sEGSydl0a5QxuGZbkktR4qGjF3+NFXxm6HyxKVYr6n32oKCKOWkbBUhsjDTnw846Nqez8EE3KdM4DTloFbjC4gYnQu39UlWqu8FOQrOBzI/wNRZ6XFqCy7dFqJ7ZyjrMOS9Uua2PvHzJ++z3F23xETkEb73yWN7Skg+lyAFP082PIqv5drH8jNo8Uth75Vl5LdgRzgVXH62IwuK7z++2SXf1sQl+Ltj90uwK5xDWzod3yxv3C8gJPhbnXCjqf0Vx8c+/phosSIhO+838o6Gh2u6HDw9aWvI1PeceOspPzn1YfAndVsVVAkytVrr5fll8r5+P/e9vwPWzizcfK1mlgeVbO+93aqlOzp17OJ42PbcZ13JVOAqHWY2rO63TfhtnAq5vOFNzU9JcefwpYfmGVdrd2VS7YArw5MYszO0oqlIAbrKwpuaKymUlAm7M1DR3Z/nBab+TMwAdJiGQ2yrkTWnuaf9k0MTHKDi+d9pv5J+P/tFwzfFlGvr/JBgco+eRVsxoqcIAQTNQlNnjz4Mp9HFQOpZ+huFvQ1NcpcZh+ViS0/KfEIe6SvdJHucaB2Sp2mgyFEcfAcWVgoKCgoKCgoKCgoKCgsIZwH8B/HgSpCDuosEAAAAASUVORK5CYII=</t>
-  </si>
-  <si>
     <t>Fortune</t>
   </si>
   <si>
@@ -86,6 +80,60 @@
   </si>
   <si>
     <t>16/30gr048</t>
+  </si>
+  <si>
+    <t>16-48kc002@students.unilorin.edu.ng</t>
+  </si>
+  <si>
+    <t>10026058282</t>
+  </si>
+  <si>
+    <t>16/48kc002</t>
+  </si>
+  <si>
+    <t>16-30gr049@students.unilorin.edu.ng</t>
+  </si>
+  <si>
+    <t>11024743164</t>
+  </si>
+  <si>
+    <t>16/30gr049</t>
+  </si>
+  <si>
+    <t>16-48kc003@students.unilorin.edu.ng</t>
+  </si>
+  <si>
+    <t>12023428046</t>
+  </si>
+  <si>
+    <t>16/48kc003</t>
+  </si>
+  <si>
+    <t>16-30gr050@students.unilorin.edu.ng</t>
+  </si>
+  <si>
+    <t>13022112928</t>
+  </si>
+  <si>
+    <t>16/30gr050</t>
+  </si>
+  <si>
+    <t>16-48kc004@students.unilorin.edu.ng</t>
+  </si>
+  <si>
+    <t>14020797810</t>
+  </si>
+  <si>
+    <t>16/48kc004</t>
+  </si>
+  <si>
+    <t>16-30gr051@students.unilorin.edu.ng</t>
+  </si>
+  <si>
+    <t>15019482692</t>
+  </si>
+  <si>
+    <t>16/30gr051</t>
   </si>
 </sst>
 </file>
@@ -94,11 +142,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,21 +163,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF4FC1FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,20 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -159,13 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -175,16 +202,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,63 +224,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,19 +308,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +398,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,139 +464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +499,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +561,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,15 +581,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,201 +599,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" quotePrefix="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -773,6 +820,15 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1040,135 +1096,285 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="32.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="10.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>400</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>500</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>400</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>600</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>700</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>800</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>900</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="1"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection password="B1AE" sheet="1" objects="1"/>
+  <conditionalFormatting sqref="C$1:C$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Matric Format" error="Matric Number must be 10 characters" sqref="H$1:H$1048576">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Reject Input Duplicates" error="The content you enter is duplicated with content in other cells in the range." sqref="C$1:C$1048576" errorStyle="warning">
+      <formula1>COUNTIF($C:$C,C1)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="16-48kc001@students.unilorin.edu.ng" tooltip="mailto:16-48kc001@students.unilorin.edu.ng"/>
     <hyperlink ref="C3" r:id="rId2" display="16-30gr048@students.unilorin.edu.ng" tooltip="mailto:16-30gr048@students.unilorin.edu.ng"/>
+    <hyperlink ref="C4" r:id="rId1" display="16-48kc002@students.unilorin.edu.ng" tooltip="mailto:16-48kc001@students.unilorin.edu.ng"/>
+    <hyperlink ref="C6" r:id="rId1" display="16-48kc003@students.unilorin.edu.ng" tooltip="mailto:16-48kc001@students.unilorin.edu.ng"/>
+    <hyperlink ref="C8" r:id="rId1" display="16-48kc004@students.unilorin.edu.ng" tooltip="mailto:16-48kc001@students.unilorin.edu.ng"/>
+    <hyperlink ref="C5" r:id="rId2" display="16-30gr049@students.unilorin.edu.ng" tooltip="mailto:16-30gr048@students.unilorin.edu.ng"/>
+    <hyperlink ref="C7" r:id="rId2" display="16-30gr050@students.unilorin.edu.ng" tooltip="mailto:16-30gr048@students.unilorin.edu.ng"/>
+    <hyperlink ref="C9" r:id="rId2" display="16-30gr051@students.unilorin.edu.ng" tooltip="mailto:16-30gr048@students.unilorin.edu.ng"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
